--- a/option_chain_all_indices.xlsx
+++ b/option_chain_all_indices.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NIFTY" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Index</t>
+          <t>Strike Price</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Expiry</t>
+          <t>CE LTP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Strike</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CE OI</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CE Volume</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CE COI</t>
+          <t>CE Change OI</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CE LTP</t>
+          <t>CE IV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CE IV</t>
+          <t>PE LTP</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,12 +476,12 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PE COI</t>
+          <t>PE Volume</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PE LTP</t>
+          <t>PE Change OI</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -489,3607 +489,3003 @@
           <t>PE IV</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PCR</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A2" t="n">
+        <v>22800</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2720</v>
       </c>
       <c r="C2" t="n">
-        <v>22800</v>
+        <v>9525</v>
       </c>
       <c r="D2" t="n">
-        <v>9525</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>-75</v>
       </c>
       <c r="F2" t="n">
-        <v>2720</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H2" t="n">
         <v>6897075</v>
       </c>
       <c r="I2" t="n">
+        <v>37781100</v>
+      </c>
+      <c r="J2" t="n">
         <v>2108925</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9</v>
       </c>
       <c r="K2" t="n">
         <v>33.2</v>
       </c>
-      <c r="L2" t="n">
-        <v>724.1</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A3" t="n">
+        <v>22850</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2205.45</v>
       </c>
       <c r="C3" t="n">
-        <v>22850</v>
+        <v>375</v>
       </c>
       <c r="D3" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-75</v>
       </c>
       <c r="F3" t="n">
-        <v>2205.45</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="H3" t="n">
         <v>927225</v>
       </c>
       <c r="I3" t="n">
+        <v>10494975</v>
+      </c>
+      <c r="J3" t="n">
         <v>481950</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.85</v>
       </c>
       <c r="K3" t="n">
         <v>32.71</v>
       </c>
-      <c r="L3" t="n">
-        <v>2472.6</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>22900</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2629.25</v>
       </c>
       <c r="C4" t="n">
-        <v>22900</v>
+        <v>975</v>
       </c>
       <c r="D4" t="n">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2629.25</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="H4" t="n">
         <v>385275</v>
       </c>
       <c r="I4" t="n">
+        <v>6166425</v>
+      </c>
+      <c r="J4" t="n">
         <v>-469050</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.05</v>
       </c>
       <c r="K4" t="n">
         <v>32.71</v>
       </c>
-      <c r="L4" t="n">
-        <v>395.15</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A5" t="n">
+        <v>22950</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2574.65</v>
       </c>
       <c r="C5" t="n">
-        <v>22950</v>
+        <v>1050</v>
       </c>
       <c r="D5" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2574.65</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>155700</v>
       </c>
       <c r="I5" t="n">
+        <v>2766975</v>
+      </c>
+      <c r="J5" t="n">
         <v>57825</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>31.98</v>
       </c>
-      <c r="L5" t="n">
-        <v>148.29</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A6" t="n">
+        <v>23000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2653.4</v>
       </c>
       <c r="C6" t="n">
-        <v>23000</v>
+        <v>35250</v>
       </c>
       <c r="D6" t="n">
-        <v>35250</v>
+        <v>2400</v>
       </c>
       <c r="E6" t="n">
         <v>-675</v>
       </c>
       <c r="F6" t="n">
-        <v>2653.4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="H6" t="n">
         <v>2536725</v>
       </c>
       <c r="I6" t="n">
+        <v>14476275</v>
+      </c>
+      <c r="J6" t="n">
         <v>-128850</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.15</v>
       </c>
       <c r="K6" t="n">
         <v>31.98</v>
       </c>
-      <c r="L6" t="n">
-        <v>71.95999999999999</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A7" t="n">
+        <v>23050</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2052.35</v>
       </c>
       <c r="C7" t="n">
-        <v>23050</v>
+        <v>225</v>
       </c>
       <c r="D7" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>-150</v>
       </c>
       <c r="F7" t="n">
-        <v>2052.35</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H7" t="n">
         <v>44625</v>
       </c>
       <c r="I7" t="n">
+        <v>1881675</v>
+      </c>
+      <c r="J7" t="n">
         <v>-40050</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.1</v>
       </c>
       <c r="K7" t="n">
         <v>31.25</v>
       </c>
-      <c r="L7" t="n">
-        <v>198.33</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A8" t="n">
+        <v>23100</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2250</v>
       </c>
       <c r="C8" t="n">
-        <v>23100</v>
+        <v>1125</v>
       </c>
       <c r="D8" t="n">
-        <v>1125</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-150</v>
       </c>
       <c r="F8" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="H8" t="n">
         <v>274800</v>
       </c>
       <c r="I8" t="n">
+        <v>6237075</v>
+      </c>
+      <c r="J8" t="n">
         <v>-447150</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.2</v>
       </c>
       <c r="K8" t="n">
         <v>31.01</v>
       </c>
-      <c r="L8" t="n">
-        <v>244.27</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A9" t="n">
+        <v>23150</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1945.9</v>
       </c>
       <c r="C9" t="n">
-        <v>23150</v>
+        <v>300</v>
       </c>
       <c r="D9" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>-75</v>
       </c>
       <c r="F9" t="n">
-        <v>1945.9</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
         <v>72900</v>
       </c>
       <c r="I9" t="n">
+        <v>1569600</v>
+      </c>
+      <c r="J9" t="n">
         <v>15825</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.4</v>
       </c>
       <c r="K9" t="n">
         <v>30.76</v>
       </c>
-      <c r="L9" t="n">
-        <v>243</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A10" t="n">
+        <v>23200</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2500</v>
       </c>
       <c r="C10" t="n">
-        <v>23200</v>
+        <v>1875</v>
       </c>
       <c r="D10" t="n">
-        <v>1875</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2500</v>
+        <v>51.09</v>
       </c>
       <c r="G10" t="n">
-        <v>51.09</v>
+        <v>1.3</v>
       </c>
       <c r="H10" t="n">
         <v>544800</v>
       </c>
       <c r="I10" t="n">
+        <v>5393625</v>
+      </c>
+      <c r="J10" t="n">
         <v>-37275</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.3</v>
       </c>
       <c r="K10" t="n">
         <v>30.03</v>
       </c>
-      <c r="L10" t="n">
-        <v>290.56</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A11" t="n">
+        <v>23250</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1810.95</v>
       </c>
       <c r="C11" t="n">
-        <v>23250</v>
+        <v>300</v>
       </c>
       <c r="D11" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>-75</v>
       </c>
       <c r="F11" t="n">
-        <v>1810.95</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H11" t="n">
         <v>54075</v>
       </c>
       <c r="I11" t="n">
+        <v>1811475</v>
+      </c>
+      <c r="J11" t="n">
         <v>-2400</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.25</v>
       </c>
       <c r="K11" t="n">
         <v>29.3</v>
       </c>
-      <c r="L11" t="n">
-        <v>180.25</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A12" t="n">
+        <v>23300</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2360.65</v>
       </c>
       <c r="C12" t="n">
-        <v>23300</v>
+        <v>900</v>
       </c>
       <c r="D12" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="E12" t="n">
         <v>-225</v>
       </c>
       <c r="F12" t="n">
-        <v>2360.65</v>
+        <v>32.59</v>
       </c>
       <c r="G12" t="n">
-        <v>32.59</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>216450</v>
       </c>
       <c r="I12" t="n">
+        <v>4270275</v>
+      </c>
+      <c r="J12" t="n">
         <v>-75450</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.2</v>
       </c>
       <c r="K12" t="n">
         <v>28.81</v>
       </c>
-      <c r="L12" t="n">
-        <v>240.5</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A13" t="n">
+        <v>23350</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1726.45</v>
       </c>
       <c r="C13" t="n">
-        <v>23350</v>
+        <v>300</v>
       </c>
       <c r="D13" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>-75</v>
       </c>
       <c r="F13" t="n">
-        <v>1726.45</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>101100</v>
       </c>
       <c r="I13" t="n">
+        <v>1893525</v>
+      </c>
+      <c r="J13" t="n">
         <v>21375</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.5</v>
       </c>
       <c r="K13" t="n">
         <v>28.81</v>
       </c>
-      <c r="L13" t="n">
-        <v>337</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A14" t="n">
+        <v>23400</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1955</v>
       </c>
       <c r="C14" t="n">
-        <v>23400</v>
+        <v>1875</v>
       </c>
       <c r="D14" t="n">
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>-75</v>
       </c>
       <c r="F14" t="n">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
         <v>428475</v>
       </c>
       <c r="I14" t="n">
+        <v>5026050</v>
+      </c>
+      <c r="J14" t="n">
         <v>-35475</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.55</v>
       </c>
       <c r="K14" t="n">
         <v>28.32</v>
       </c>
-      <c r="L14" t="n">
-        <v>228.52</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A15" t="n">
+        <v>23450</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2180</v>
       </c>
       <c r="C15" t="n">
-        <v>23450</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="E15" t="n">
         <v>-75</v>
       </c>
       <c r="F15" t="n">
-        <v>2180</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
         <v>45825</v>
       </c>
       <c r="I15" t="n">
+        <v>1907775</v>
+      </c>
+      <c r="J15" t="n">
         <v>3300</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.6</v>
       </c>
       <c r="K15" t="n">
         <v>27.83</v>
       </c>
-      <c r="L15" t="n">
-        <v>122.2</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A16" t="n">
+        <v>23500</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2157.1</v>
       </c>
       <c r="C16" t="n">
-        <v>23500</v>
+        <v>30525</v>
       </c>
       <c r="D16" t="n">
-        <v>30525</v>
+        <v>1725</v>
       </c>
       <c r="E16" t="n">
         <v>150</v>
       </c>
       <c r="F16" t="n">
-        <v>2157.1</v>
+        <v>21.48</v>
       </c>
       <c r="G16" t="n">
-        <v>21.48</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
         <v>2830350</v>
       </c>
       <c r="I16" t="n">
+        <v>17931825</v>
+      </c>
+      <c r="J16" t="n">
         <v>-474825</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.65</v>
       </c>
       <c r="K16" t="n">
         <v>27.34</v>
       </c>
-      <c r="L16" t="n">
-        <v>92.72</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A17" t="n">
+        <v>23550</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1955</v>
       </c>
       <c r="C17" t="n">
-        <v>23550</v>
+        <v>675</v>
       </c>
       <c r="D17" t="n">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>-75</v>
       </c>
       <c r="F17" t="n">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
         <v>110775</v>
       </c>
       <c r="I17" t="n">
+        <v>2020950</v>
+      </c>
+      <c r="J17" t="n">
         <v>-6450</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.7</v>
       </c>
       <c r="K17" t="n">
         <v>26.73</v>
       </c>
-      <c r="L17" t="n">
-        <v>164.11</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A18" t="n">
+        <v>23600</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1997.95</v>
       </c>
       <c r="C18" t="n">
-        <v>23600</v>
+        <v>1200</v>
       </c>
       <c r="D18" t="n">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1997.95</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
         <v>783600</v>
       </c>
       <c r="I18" t="n">
+        <v>7854600</v>
+      </c>
+      <c r="J18" t="n">
         <v>-77925</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.65</v>
       </c>
       <c r="K18" t="n">
         <v>26.12</v>
       </c>
-      <c r="L18" t="n">
-        <v>653</v>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A19" t="n">
+        <v>23650</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1412.6</v>
       </c>
       <c r="C19" t="n">
-        <v>23650</v>
+        <v>300</v>
       </c>
       <c r="D19" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>-75</v>
       </c>
       <c r="F19" t="n">
-        <v>1412.6</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
         <v>203475</v>
       </c>
       <c r="I19" t="n">
+        <v>2758275</v>
+      </c>
+      <c r="J19" t="n">
         <v>106500</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.7</v>
       </c>
       <c r="K19" t="n">
         <v>25.76</v>
       </c>
-      <c r="L19" t="n">
-        <v>678.25</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A20" t="n">
+        <v>23700</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1875</v>
       </c>
       <c r="C20" t="n">
-        <v>23700</v>
+        <v>4200</v>
       </c>
       <c r="D20" t="n">
-        <v>4200</v>
+        <v>300</v>
       </c>
       <c r="E20" t="n">
         <v>-225</v>
       </c>
       <c r="F20" t="n">
-        <v>1875</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>1812750</v>
       </c>
       <c r="I20" t="n">
+        <v>10501050</v>
+      </c>
+      <c r="J20" t="n">
         <v>357975</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.7</v>
       </c>
       <c r="K20" t="n">
         <v>25.15</v>
       </c>
-      <c r="L20" t="n">
-        <v>431.61</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A21" t="n">
+        <v>23750</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1571.9</v>
       </c>
       <c r="C21" t="n">
-        <v>23750</v>
+        <v>900</v>
       </c>
       <c r="D21" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>-75</v>
       </c>
       <c r="F21" t="n">
-        <v>1571.9</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>154950</v>
       </c>
       <c r="I21" t="n">
+        <v>2833950</v>
+      </c>
+      <c r="J21" t="n">
         <v>65775</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>25.02</v>
       </c>
-      <c r="L21" t="n">
-        <v>172.17</v>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A22" t="n">
+        <v>23800</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1835</v>
       </c>
       <c r="C22" t="n">
-        <v>23800</v>
+        <v>9750</v>
       </c>
       <c r="D22" t="n">
-        <v>9750</v>
+        <v>450</v>
       </c>
       <c r="E22" t="n">
         <v>75</v>
       </c>
       <c r="F22" t="n">
-        <v>1835</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
         <v>2079900</v>
       </c>
       <c r="I22" t="n">
+        <v>13562175</v>
+      </c>
+      <c r="J22" t="n">
         <v>1103925</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.1</v>
       </c>
       <c r="K22" t="n">
         <v>24.41</v>
       </c>
-      <c r="L22" t="n">
-        <v>213.32</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A23" t="n">
+        <v>23850</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1385</v>
       </c>
       <c r="C23" t="n">
-        <v>23850</v>
+        <v>975</v>
       </c>
       <c r="D23" t="n">
-        <v>975</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1385</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
         <v>381600</v>
       </c>
       <c r="I23" t="n">
+        <v>5333700</v>
+      </c>
+      <c r="J23" t="n">
         <v>122475</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.25</v>
       </c>
       <c r="K23" t="n">
         <v>24.05</v>
       </c>
-      <c r="L23" t="n">
-        <v>391.38</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A24" t="n">
+        <v>23900</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1777.85</v>
       </c>
       <c r="C24" t="n">
-        <v>23900</v>
+        <v>12300</v>
       </c>
       <c r="D24" t="n">
-        <v>12300</v>
+        <v>1125</v>
       </c>
       <c r="E24" t="n">
         <v>-525</v>
       </c>
       <c r="F24" t="n">
-        <v>1777.85</v>
+        <v>33.2</v>
       </c>
       <c r="G24" t="n">
-        <v>33.2</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>1011075</v>
       </c>
       <c r="I24" t="n">
+        <v>16540425</v>
+      </c>
+      <c r="J24" t="n">
         <v>-959700</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.5</v>
       </c>
       <c r="K24" t="n">
         <v>23.56</v>
       </c>
-      <c r="L24" t="n">
-        <v>82.2</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A25" t="n">
+        <v>23950</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1547.25</v>
       </c>
       <c r="C25" t="n">
-        <v>23950</v>
+        <v>825</v>
       </c>
       <c r="D25" t="n">
-        <v>825</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>-75</v>
       </c>
       <c r="F25" t="n">
-        <v>1547.25</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>222750</v>
       </c>
       <c r="I25" t="n">
+        <v>3583275</v>
+      </c>
+      <c r="J25" t="n">
         <v>109500</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2.6</v>
       </c>
       <c r="K25" t="n">
         <v>23.19</v>
       </c>
-      <c r="L25" t="n">
-        <v>270</v>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A26" t="n">
+        <v>24000</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1655.5</v>
       </c>
       <c r="C26" t="n">
-        <v>24000</v>
+        <v>171375</v>
       </c>
       <c r="D26" t="n">
-        <v>171375</v>
+        <v>29325</v>
       </c>
       <c r="E26" t="n">
         <v>-15300</v>
       </c>
       <c r="F26" t="n">
-        <v>1655.5</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>5692650</v>
       </c>
       <c r="I26" t="n">
+        <v>30400425</v>
+      </c>
+      <c r="J26" t="n">
         <v>686175</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.7</v>
       </c>
       <c r="K26" t="n">
         <v>22.71</v>
       </c>
-      <c r="L26" t="n">
-        <v>33.22</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A27" t="n">
+        <v>24050</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1449</v>
       </c>
       <c r="C27" t="n">
-        <v>24050</v>
+        <v>2250</v>
       </c>
       <c r="D27" t="n">
-        <v>2250</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
         <v>240675</v>
       </c>
       <c r="I27" t="n">
+        <v>3377625</v>
+      </c>
+      <c r="J27" t="n">
         <v>115650</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.9</v>
       </c>
       <c r="K27" t="n">
         <v>22.34</v>
       </c>
-      <c r="L27" t="n">
-        <v>106.97</v>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A28" t="n">
+        <v>24100</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1575.65</v>
       </c>
       <c r="C28" t="n">
-        <v>24100</v>
+        <v>11025</v>
       </c>
       <c r="D28" t="n">
-        <v>11025</v>
+        <v>1200</v>
       </c>
       <c r="E28" t="n">
         <v>-825</v>
       </c>
       <c r="F28" t="n">
-        <v>1575.65</v>
+        <v>29.36</v>
       </c>
       <c r="G28" t="n">
-        <v>29.36</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
         <v>1416000</v>
       </c>
       <c r="I28" t="n">
+        <v>10844025</v>
+      </c>
+      <c r="J28" t="n">
         <v>290025</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>21.85</v>
       </c>
-      <c r="L28" t="n">
-        <v>128.44</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A29" t="n">
+        <v>24150</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1520</v>
       </c>
       <c r="C29" t="n">
-        <v>24150</v>
+        <v>600</v>
       </c>
       <c r="D29" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1520</v>
+        <v>26.64</v>
       </c>
       <c r="G29" t="n">
-        <v>26.64</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>260250</v>
       </c>
       <c r="I29" t="n">
+        <v>3820650</v>
+      </c>
+      <c r="J29" t="n">
         <v>111375</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.3</v>
       </c>
       <c r="K29" t="n">
         <v>21.61</v>
       </c>
-      <c r="L29" t="n">
-        <v>433.75</v>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A30" t="n">
+        <v>24200</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1462</v>
       </c>
       <c r="C30" t="n">
-        <v>24200</v>
+        <v>24525</v>
       </c>
       <c r="D30" t="n">
-        <v>24525</v>
+        <v>1575</v>
       </c>
       <c r="E30" t="n">
         <v>-600</v>
       </c>
       <c r="F30" t="n">
-        <v>1462</v>
+        <v>22.09</v>
       </c>
       <c r="G30" t="n">
-        <v>22.09</v>
+        <v>3.85</v>
       </c>
       <c r="H30" t="n">
         <v>3412950</v>
       </c>
       <c r="I30" t="n">
+        <v>22177575</v>
+      </c>
+      <c r="J30" t="n">
         <v>1614675</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.85</v>
       </c>
       <c r="K30" t="n">
         <v>21.12</v>
       </c>
-      <c r="L30" t="n">
-        <v>139.16</v>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A31" t="n">
+        <v>24250</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1371.9</v>
       </c>
       <c r="C31" t="n">
-        <v>24250</v>
+        <v>1500</v>
       </c>
       <c r="D31" t="n">
-        <v>1500</v>
+        <v>75</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1371.9</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
         <v>467400</v>
       </c>
       <c r="I31" t="n">
+        <v>4985775</v>
+      </c>
+      <c r="J31" t="n">
         <v>205875</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.8</v>
       </c>
       <c r="K31" t="n">
         <v>20.63</v>
       </c>
-      <c r="L31" t="n">
-        <v>311.6</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A32" t="n">
+        <v>24300</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1357.4</v>
       </c>
       <c r="C32" t="n">
-        <v>24300</v>
+        <v>18975</v>
       </c>
       <c r="D32" t="n">
-        <v>18975</v>
+        <v>2625</v>
       </c>
       <c r="E32" t="n">
         <v>-1050</v>
       </c>
       <c r="F32" t="n">
-        <v>1357.4</v>
+        <v>15.38</v>
       </c>
       <c r="G32" t="n">
-        <v>15.38</v>
+        <v>4.25</v>
       </c>
       <c r="H32" t="n">
         <v>3490725</v>
       </c>
       <c r="I32" t="n">
+        <v>18558000</v>
+      </c>
+      <c r="J32" t="n">
         <v>1711350</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.25</v>
       </c>
       <c r="K32" t="n">
         <v>20.26</v>
       </c>
-      <c r="L32" t="n">
-        <v>183.96</v>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A33" t="n">
+        <v>24350</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1331</v>
       </c>
       <c r="C33" t="n">
-        <v>24350</v>
+        <v>1575</v>
       </c>
       <c r="D33" t="n">
-        <v>1575</v>
+        <v>75</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1331</v>
+        <v>26.82</v>
       </c>
       <c r="G33" t="n">
-        <v>26.82</v>
+        <v>4.7</v>
       </c>
       <c r="H33" t="n">
         <v>369825</v>
       </c>
       <c r="I33" t="n">
+        <v>4209825</v>
+      </c>
+      <c r="J33" t="n">
         <v>-5700</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.7</v>
       </c>
       <c r="K33" t="n">
         <v>19.78</v>
       </c>
-      <c r="L33" t="n">
-        <v>234.81</v>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A34" t="n">
+        <v>24400</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1259.75</v>
       </c>
       <c r="C34" t="n">
-        <v>24400</v>
+        <v>38775</v>
       </c>
       <c r="D34" t="n">
-        <v>38775</v>
+        <v>15150</v>
       </c>
       <c r="E34" t="n">
         <v>-975</v>
       </c>
       <c r="F34" t="n">
-        <v>1259.75</v>
+        <v>17.82</v>
       </c>
       <c r="G34" t="n">
-        <v>17.82</v>
+        <v>4.75</v>
       </c>
       <c r="H34" t="n">
         <v>2992050</v>
       </c>
       <c r="I34" t="n">
+        <v>17285775</v>
+      </c>
+      <c r="J34" t="n">
         <v>912750</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4.75</v>
       </c>
       <c r="K34" t="n">
         <v>19.29</v>
       </c>
-      <c r="L34" t="n">
-        <v>77.16</v>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A35" t="n">
+        <v>24450</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1204.45</v>
       </c>
       <c r="C35" t="n">
-        <v>24450</v>
+        <v>8100</v>
       </c>
       <c r="D35" t="n">
-        <v>8100</v>
+        <v>525</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1204.45</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="H35" t="n">
         <v>326400</v>
       </c>
       <c r="I35" t="n">
+        <v>4629525</v>
+      </c>
+      <c r="J35" t="n">
         <v>-58950</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.05</v>
       </c>
       <c r="K35" t="n">
         <v>18.8</v>
       </c>
-      <c r="L35" t="n">
-        <v>40.3</v>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A36" t="n">
+        <v>24500</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1108.65</v>
       </c>
       <c r="C36" t="n">
-        <v>24500</v>
+        <v>216825</v>
       </c>
       <c r="D36" t="n">
-        <v>216825</v>
+        <v>100800</v>
       </c>
       <c r="E36" t="n">
         <v>-30300</v>
       </c>
       <c r="F36" t="n">
-        <v>1108.65</v>
+        <v>17.4</v>
       </c>
       <c r="G36" t="n">
-        <v>17.4</v>
+        <v>5.5</v>
       </c>
       <c r="H36" t="n">
         <v>5959725</v>
       </c>
       <c r="I36" t="n">
+        <v>31916925</v>
+      </c>
+      <c r="J36" t="n">
         <v>2574300</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.5</v>
       </c>
       <c r="K36" t="n">
         <v>18.25</v>
       </c>
-      <c r="L36" t="n">
-        <v>27.49</v>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A37" t="n">
+        <v>24550</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1101.5</v>
       </c>
       <c r="C37" t="n">
-        <v>24550</v>
+        <v>9600</v>
       </c>
       <c r="D37" t="n">
-        <v>9600</v>
+        <v>1050</v>
       </c>
       <c r="E37" t="n">
         <v>-225</v>
       </c>
       <c r="F37" t="n">
-        <v>1101.5</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="H37" t="n">
         <v>400575</v>
       </c>
       <c r="I37" t="n">
+        <v>6155850</v>
+      </c>
+      <c r="J37" t="n">
         <v>-19425</v>
-      </c>
-      <c r="J37" t="n">
-        <v>5.85</v>
       </c>
       <c r="K37" t="n">
         <v>17.88</v>
       </c>
-      <c r="L37" t="n">
-        <v>41.73</v>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A38" t="n">
+        <v>24600</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1061.05</v>
       </c>
       <c r="C38" t="n">
-        <v>24600</v>
+        <v>63600</v>
       </c>
       <c r="D38" t="n">
-        <v>63600</v>
+        <v>24525</v>
       </c>
       <c r="E38" t="n">
         <v>-4575</v>
       </c>
       <c r="F38" t="n">
-        <v>1061.05</v>
+        <v>16.17</v>
       </c>
       <c r="G38" t="n">
-        <v>16.17</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>2808150</v>
       </c>
       <c r="I38" t="n">
+        <v>17965575</v>
+      </c>
+      <c r="J38" t="n">
         <v>1518750</v>
-      </c>
-      <c r="J38" t="n">
-        <v>6.4</v>
       </c>
       <c r="K38" t="n">
         <v>17.43</v>
       </c>
-      <c r="L38" t="n">
-        <v>44.15</v>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A39" t="n">
+        <v>24650</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1019.85</v>
       </c>
       <c r="C39" t="n">
-        <v>24650</v>
+        <v>10875</v>
       </c>
       <c r="D39" t="n">
-        <v>10875</v>
+        <v>4500</v>
       </c>
       <c r="E39" t="n">
         <v>-825</v>
       </c>
       <c r="F39" t="n">
-        <v>1019.85</v>
+        <v>19.01</v>
       </c>
       <c r="G39" t="n">
-        <v>19.01</v>
+        <v>7.3</v>
       </c>
       <c r="H39" t="n">
         <v>647700</v>
       </c>
       <c r="I39" t="n">
+        <v>8200350</v>
+      </c>
+      <c r="J39" t="n">
         <v>234675</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.3</v>
       </c>
       <c r="K39" t="n">
         <v>16.97</v>
       </c>
-      <c r="L39" t="n">
-        <v>59.56</v>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A40" t="n">
+        <v>24700</v>
+      </c>
+      <c r="B40" t="n">
+        <v>966.5</v>
       </c>
       <c r="C40" t="n">
-        <v>24700</v>
+        <v>130800</v>
       </c>
       <c r="D40" t="n">
-        <v>130800</v>
+        <v>43650</v>
       </c>
       <c r="E40" t="n">
         <v>-7125</v>
       </c>
       <c r="F40" t="n">
-        <v>966.5</v>
+        <v>17.18</v>
       </c>
       <c r="G40" t="n">
-        <v>17.18</v>
+        <v>7.8</v>
       </c>
       <c r="H40" t="n">
         <v>2974425</v>
       </c>
       <c r="I40" t="n">
+        <v>22107300</v>
+      </c>
+      <c r="J40" t="n">
         <v>1451250</v>
-      </c>
-      <c r="J40" t="n">
-        <v>7.8</v>
       </c>
       <c r="K40" t="n">
         <v>16.54</v>
       </c>
-      <c r="L40" t="n">
-        <v>22.74</v>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A41" t="n">
+        <v>24750</v>
+      </c>
+      <c r="B41" t="n">
+        <v>918</v>
       </c>
       <c r="C41" t="n">
-        <v>24750</v>
+        <v>23475</v>
       </c>
       <c r="D41" t="n">
-        <v>23475</v>
+        <v>18375</v>
       </c>
       <c r="E41" t="n">
         <v>-1350</v>
       </c>
       <c r="F41" t="n">
-        <v>918</v>
+        <v>16.91</v>
       </c>
       <c r="G41" t="n">
-        <v>16.91</v>
+        <v>8.4</v>
       </c>
       <c r="H41" t="n">
         <v>1334625</v>
       </c>
       <c r="I41" t="n">
+        <v>12847050</v>
+      </c>
+      <c r="J41" t="n">
         <v>790350</v>
-      </c>
-      <c r="J41" t="n">
-        <v>8.4</v>
       </c>
       <c r="K41" t="n">
         <v>16.08</v>
       </c>
-      <c r="L41" t="n">
-        <v>56.85</v>
-      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A42" t="n">
+        <v>24800</v>
+      </c>
+      <c r="B42" t="n">
+        <v>869.1</v>
       </c>
       <c r="C42" t="n">
-        <v>24800</v>
+        <v>382725</v>
       </c>
       <c r="D42" t="n">
-        <v>382725</v>
+        <v>111150</v>
       </c>
       <c r="E42" t="n">
         <v>-26325</v>
       </c>
       <c r="F42" t="n">
-        <v>869.1</v>
+        <v>16.48</v>
       </c>
       <c r="G42" t="n">
-        <v>16.48</v>
+        <v>9.75</v>
       </c>
       <c r="H42" t="n">
         <v>3631425</v>
       </c>
       <c r="I42" t="n">
+        <v>28780950</v>
+      </c>
+      <c r="J42" t="n">
         <v>1134300</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9.75</v>
       </c>
       <c r="K42" t="n">
         <v>15.75</v>
       </c>
-      <c r="L42" t="n">
-        <v>9.49</v>
-      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A43" t="n">
+        <v>24850</v>
+      </c>
+      <c r="B43" t="n">
+        <v>819.75</v>
       </c>
       <c r="C43" t="n">
-        <v>24850</v>
+        <v>48525</v>
       </c>
       <c r="D43" t="n">
-        <v>48525</v>
+        <v>36525</v>
       </c>
       <c r="E43" t="n">
         <v>-11175</v>
       </c>
       <c r="F43" t="n">
-        <v>819.75</v>
+        <v>15.87</v>
       </c>
       <c r="G43" t="n">
-        <v>15.87</v>
+        <v>10.85</v>
       </c>
       <c r="H43" t="n">
         <v>1066500</v>
       </c>
       <c r="I43" t="n">
+        <v>12371700</v>
+      </c>
+      <c r="J43" t="n">
         <v>453600</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10.85</v>
       </c>
       <c r="K43" t="n">
         <v>15.38</v>
       </c>
-      <c r="L43" t="n">
-        <v>21.98</v>
-      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A44" t="n">
+        <v>24900</v>
+      </c>
+      <c r="B44" t="n">
+        <v>772</v>
       </c>
       <c r="C44" t="n">
-        <v>24900</v>
+        <v>329550</v>
       </c>
       <c r="D44" t="n">
-        <v>329550</v>
+        <v>141750</v>
       </c>
       <c r="E44" t="n">
         <v>-39675</v>
       </c>
       <c r="F44" t="n">
-        <v>772</v>
+        <v>15.63</v>
       </c>
       <c r="G44" t="n">
-        <v>15.63</v>
+        <v>12.25</v>
       </c>
       <c r="H44" t="n">
         <v>2734800</v>
       </c>
       <c r="I44" t="n">
+        <v>23243400</v>
+      </c>
+      <c r="J44" t="n">
         <v>829500</v>
-      </c>
-      <c r="J44" t="n">
-        <v>12.25</v>
       </c>
       <c r="K44" t="n">
         <v>14.95</v>
       </c>
-      <c r="L44" t="n">
-        <v>8.300000000000001</v>
-      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A45" t="n">
+        <v>24950</v>
+      </c>
+      <c r="B45" t="n">
+        <v>728.55</v>
       </c>
       <c r="C45" t="n">
-        <v>24950</v>
+        <v>95325</v>
       </c>
       <c r="D45" t="n">
-        <v>95325</v>
+        <v>34275</v>
       </c>
       <c r="E45" t="n">
         <v>-11175</v>
       </c>
       <c r="F45" t="n">
-        <v>728.55</v>
+        <v>16.17</v>
       </c>
       <c r="G45" t="n">
-        <v>16.17</v>
+        <v>14.15</v>
       </c>
       <c r="H45" t="n">
         <v>953025</v>
       </c>
       <c r="I45" t="n">
+        <v>12516675</v>
+      </c>
+      <c r="J45" t="n">
         <v>326850</v>
-      </c>
-      <c r="J45" t="n">
-        <v>14.15</v>
       </c>
       <c r="K45" t="n">
         <v>14.59</v>
       </c>
-      <c r="L45" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A46" t="n">
+        <v>25000</v>
+      </c>
+      <c r="B46" t="n">
+        <v>671.5</v>
       </c>
       <c r="C46" t="n">
-        <v>25000</v>
+        <v>1616775</v>
       </c>
       <c r="D46" t="n">
-        <v>1616775</v>
+        <v>1875975</v>
       </c>
       <c r="E46" t="n">
         <v>-181050</v>
       </c>
       <c r="F46" t="n">
-        <v>671.5</v>
+        <v>15.44</v>
       </c>
       <c r="G46" t="n">
-        <v>15.44</v>
+        <v>15.85</v>
       </c>
       <c r="H46" t="n">
         <v>8882025</v>
       </c>
       <c r="I46" t="n">
+        <v>61877250</v>
+      </c>
+      <c r="J46" t="n">
         <v>3057000</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15.85</v>
       </c>
       <c r="K46" t="n">
         <v>14.21</v>
       </c>
-      <c r="L46" t="n">
-        <v>5.49</v>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A47" t="n">
+        <v>25050</v>
+      </c>
+      <c r="B47" t="n">
+        <v>627.9</v>
       </c>
       <c r="C47" t="n">
-        <v>25050</v>
+        <v>311775</v>
       </c>
       <c r="D47" t="n">
-        <v>311775</v>
+        <v>102975</v>
       </c>
       <c r="E47" t="n">
         <v>-21525</v>
       </c>
       <c r="F47" t="n">
-        <v>627.9</v>
+        <v>14.31</v>
       </c>
       <c r="G47" t="n">
-        <v>14.31</v>
+        <v>17.95</v>
       </c>
       <c r="H47" t="n">
         <v>1930500</v>
       </c>
       <c r="I47" t="n">
+        <v>15514350</v>
+      </c>
+      <c r="J47" t="n">
         <v>986700</v>
-      </c>
-      <c r="J47" t="n">
-        <v>17.95</v>
       </c>
       <c r="K47" t="n">
         <v>13.82</v>
       </c>
-      <c r="L47" t="n">
-        <v>6.19</v>
-      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A48" t="n">
+        <v>25100</v>
+      </c>
+      <c r="B48" t="n">
+        <v>580</v>
       </c>
       <c r="C48" t="n">
-        <v>25100</v>
+        <v>795000</v>
       </c>
       <c r="D48" t="n">
-        <v>795000</v>
+        <v>689550</v>
       </c>
       <c r="E48" t="n">
         <v>-173025</v>
       </c>
       <c r="F48" t="n">
-        <v>580</v>
+        <v>13.78</v>
       </c>
       <c r="G48" t="n">
-        <v>13.78</v>
+        <v>20.4</v>
       </c>
       <c r="H48" t="n">
         <v>3220875</v>
       </c>
       <c r="I48" t="n">
+        <v>29764275</v>
+      </c>
+      <c r="J48" t="n">
         <v>700875</v>
-      </c>
-      <c r="J48" t="n">
-        <v>20.4</v>
       </c>
       <c r="K48" t="n">
         <v>13.37</v>
       </c>
-      <c r="L48" t="n">
-        <v>4.05</v>
-      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A49" t="n">
+        <v>25150</v>
+      </c>
+      <c r="B49" t="n">
+        <v>532.9</v>
       </c>
       <c r="C49" t="n">
-        <v>25150</v>
+        <v>191775</v>
       </c>
       <c r="D49" t="n">
-        <v>191775</v>
+        <v>232425</v>
       </c>
       <c r="E49" t="n">
         <v>-18675</v>
       </c>
       <c r="F49" t="n">
-        <v>532.9</v>
+        <v>13.32</v>
       </c>
       <c r="G49" t="n">
-        <v>13.32</v>
+        <v>23.4</v>
       </c>
       <c r="H49" t="n">
         <v>1304550</v>
       </c>
       <c r="I49" t="n">
+        <v>18128700</v>
+      </c>
+      <c r="J49" t="n">
         <v>488700</v>
-      </c>
-      <c r="J49" t="n">
-        <v>23.4</v>
       </c>
       <c r="K49" t="n">
         <v>13</v>
       </c>
-      <c r="L49" t="n">
-        <v>6.8</v>
-      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A50" t="n">
+        <v>25200</v>
+      </c>
+      <c r="B50" t="n">
+        <v>486</v>
       </c>
       <c r="C50" t="n">
-        <v>25200</v>
+        <v>903600</v>
       </c>
       <c r="D50" t="n">
-        <v>903600</v>
+        <v>2361075</v>
       </c>
       <c r="E50" t="n">
         <v>-281100</v>
       </c>
       <c r="F50" t="n">
-        <v>486</v>
+        <v>13.37</v>
       </c>
       <c r="G50" t="n">
-        <v>13.37</v>
+        <v>27.05</v>
       </c>
       <c r="H50" t="n">
         <v>5855625</v>
       </c>
       <c r="I50" t="n">
+        <v>54002625</v>
+      </c>
+      <c r="J50" t="n">
         <v>743400</v>
-      </c>
-      <c r="J50" t="n">
-        <v>27.05</v>
       </c>
       <c r="K50" t="n">
         <v>12.57</v>
       </c>
-      <c r="L50" t="n">
-        <v>6.48</v>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A51" t="n">
+        <v>25250</v>
+      </c>
+      <c r="B51" t="n">
+        <v>445.95</v>
       </c>
       <c r="C51" t="n">
-        <v>25250</v>
+        <v>298950</v>
       </c>
       <c r="D51" t="n">
-        <v>298950</v>
+        <v>804825</v>
       </c>
       <c r="E51" t="n">
         <v>-133275</v>
       </c>
       <c r="F51" t="n">
-        <v>445.95</v>
+        <v>12.8</v>
       </c>
       <c r="G51" t="n">
-        <v>12.8</v>
+        <v>31.3</v>
       </c>
       <c r="H51" t="n">
         <v>2567175</v>
       </c>
       <c r="I51" t="n">
+        <v>27842025</v>
+      </c>
+      <c r="J51" t="n">
         <v>1133250</v>
-      </c>
-      <c r="J51" t="n">
-        <v>31.3</v>
       </c>
       <c r="K51" t="n">
         <v>12.17</v>
       </c>
-      <c r="L51" t="n">
-        <v>8.59</v>
-      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A52" t="n">
+        <v>25300</v>
+      </c>
+      <c r="B52" t="n">
+        <v>396.1</v>
       </c>
       <c r="C52" t="n">
-        <v>25300</v>
+        <v>1682775</v>
       </c>
       <c r="D52" t="n">
-        <v>1682775</v>
+        <v>5795175</v>
       </c>
       <c r="E52" t="n">
         <v>-630150</v>
       </c>
       <c r="F52" t="n">
-        <v>396.1</v>
+        <v>12.45</v>
       </c>
       <c r="G52" t="n">
-        <v>12.45</v>
+        <v>37.35</v>
       </c>
       <c r="H52" t="n">
         <v>5594100</v>
       </c>
       <c r="I52" t="n">
+        <v>59876700</v>
+      </c>
+      <c r="J52" t="n">
         <v>1614900</v>
-      </c>
-      <c r="J52" t="n">
-        <v>37.35</v>
       </c>
       <c r="K52" t="n">
         <v>11.9</v>
       </c>
-      <c r="L52" t="n">
-        <v>3.32</v>
-      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A53" t="n">
+        <v>25350</v>
+      </c>
+      <c r="B53" t="n">
+        <v>352.25</v>
       </c>
       <c r="C53" t="n">
-        <v>25350</v>
+        <v>685575</v>
       </c>
       <c r="D53" t="n">
-        <v>685575</v>
+        <v>2728950</v>
       </c>
       <c r="E53" t="n">
         <v>-365475</v>
       </c>
       <c r="F53" t="n">
-        <v>352.25</v>
+        <v>12.05</v>
       </c>
       <c r="G53" t="n">
-        <v>12.05</v>
+        <v>44.1</v>
       </c>
       <c r="H53" t="n">
         <v>2673750</v>
       </c>
       <c r="I53" t="n">
+        <v>31240725</v>
+      </c>
+      <c r="J53" t="n">
         <v>840900</v>
-      </c>
-      <c r="J53" t="n">
-        <v>44.1</v>
       </c>
       <c r="K53" t="n">
         <v>11.52</v>
       </c>
-      <c r="L53" t="n">
-        <v>3.9</v>
-      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A54" t="n">
+        <v>25400</v>
+      </c>
+      <c r="B54" t="n">
+        <v>313.05</v>
       </c>
       <c r="C54" t="n">
-        <v>25400</v>
+        <v>1841400</v>
       </c>
       <c r="D54" t="n">
-        <v>1841400</v>
+        <v>14347125</v>
       </c>
       <c r="E54" t="n">
         <v>-728400</v>
       </c>
       <c r="F54" t="n">
-        <v>313.05</v>
+        <v>11.58</v>
       </c>
       <c r="G54" t="n">
-        <v>11.58</v>
+        <v>52.3</v>
       </c>
       <c r="H54" t="n">
         <v>6750375</v>
       </c>
       <c r="I54" t="n">
+        <v>75112050</v>
+      </c>
+      <c r="J54" t="n">
         <v>2519700</v>
-      </c>
-      <c r="J54" t="n">
-        <v>52.3</v>
       </c>
       <c r="K54" t="n">
         <v>11.2</v>
       </c>
-      <c r="L54" t="n">
-        <v>3.67</v>
-      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A55" t="n">
+        <v>25450</v>
+      </c>
+      <c r="B55" t="n">
+        <v>275</v>
       </c>
       <c r="C55" t="n">
-        <v>25450</v>
+        <v>672600</v>
       </c>
       <c r="D55" t="n">
-        <v>672600</v>
+        <v>10203225</v>
       </c>
       <c r="E55" t="n">
         <v>-431250</v>
       </c>
       <c r="F55" t="n">
-        <v>275</v>
+        <v>11.43</v>
       </c>
       <c r="G55" t="n">
-        <v>11.43</v>
+        <v>63.2</v>
       </c>
       <c r="H55" t="n">
         <v>2099025</v>
       </c>
       <c r="I55" t="n">
+        <v>44901900</v>
+      </c>
+      <c r="J55" t="n">
         <v>721650</v>
-      </c>
-      <c r="J55" t="n">
-        <v>63.2</v>
       </c>
       <c r="K55" t="n">
         <v>10.97</v>
       </c>
-      <c r="L55" t="n">
-        <v>3.12</v>
-      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A56" t="n">
+        <v>25500</v>
+      </c>
+      <c r="B56" t="n">
+        <v>237.15</v>
       </c>
       <c r="C56" t="n">
-        <v>25500</v>
+        <v>3790875</v>
       </c>
       <c r="D56" t="n">
-        <v>3790875</v>
+        <v>79540125</v>
       </c>
       <c r="E56" t="n">
         <v>-981600</v>
       </c>
       <c r="F56" t="n">
-        <v>237.15</v>
+        <v>11.09</v>
       </c>
       <c r="G56" t="n">
-        <v>11.09</v>
+        <v>75.75</v>
       </c>
       <c r="H56" t="n">
         <v>9156900</v>
       </c>
       <c r="I56" t="n">
+        <v>131271975</v>
+      </c>
+      <c r="J56" t="n">
         <v>4005525</v>
-      </c>
-      <c r="J56" t="n">
-        <v>75.75</v>
       </c>
       <c r="K56" t="n">
         <v>10.74</v>
       </c>
-      <c r="L56" t="n">
-        <v>2.42</v>
-      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A57" t="n">
+        <v>25550</v>
+      </c>
+      <c r="B57" t="n">
+        <v>201.3</v>
       </c>
       <c r="C57" t="n">
-        <v>25550</v>
+        <v>1483950</v>
       </c>
       <c r="D57" t="n">
-        <v>1483950</v>
+        <v>83141475</v>
       </c>
       <c r="E57" t="n">
         <v>219450</v>
       </c>
       <c r="F57" t="n">
-        <v>201.3</v>
+        <v>10.91</v>
       </c>
       <c r="G57" t="n">
-        <v>10.91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>3074850</v>
       </c>
       <c r="I57" t="n">
+        <v>91103400</v>
+      </c>
+      <c r="J57" t="n">
         <v>2185725</v>
-      </c>
-      <c r="J57" t="n">
-        <v>90.59999999999999</v>
       </c>
       <c r="K57" t="n">
         <v>10.46</v>
       </c>
-      <c r="L57" t="n">
-        <v>2.07</v>
-      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A58" t="n">
+        <v>25600</v>
+      </c>
+      <c r="B58" t="n">
+        <v>170</v>
       </c>
       <c r="C58" t="n">
-        <v>25600</v>
+        <v>4765200</v>
       </c>
       <c r="D58" t="n">
-        <v>4765200</v>
+        <v>216296175</v>
       </c>
       <c r="E58" t="n">
         <v>2316300</v>
       </c>
       <c r="F58" t="n">
-        <v>170</v>
+        <v>10.64</v>
       </c>
       <c r="G58" t="n">
-        <v>10.64</v>
+        <v>107.4</v>
       </c>
       <c r="H58" t="n">
         <v>6145125</v>
       </c>
       <c r="I58" t="n">
+        <v>171481650</v>
+      </c>
+      <c r="J58" t="n">
         <v>5278500</v>
-      </c>
-      <c r="J58" t="n">
-        <v>107.4</v>
       </c>
       <c r="K58" t="n">
         <v>10.31</v>
       </c>
-      <c r="L58" t="n">
-        <v>1.29</v>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A59" t="n">
+        <v>25650</v>
+      </c>
+      <c r="B59" t="n">
+        <v>140.4</v>
       </c>
       <c r="C59" t="n">
-        <v>25650</v>
+        <v>2919900</v>
       </c>
       <c r="D59" t="n">
-        <v>2919900</v>
+        <v>122854350</v>
       </c>
       <c r="E59" t="n">
         <v>2229075</v>
       </c>
       <c r="F59" t="n">
-        <v>140.4</v>
+        <v>10.54</v>
       </c>
       <c r="G59" t="n">
-        <v>10.54</v>
+        <v>128.8</v>
       </c>
       <c r="H59" t="n">
         <v>2547975</v>
       </c>
       <c r="I59" t="n">
+        <v>69496575</v>
+      </c>
+      <c r="J59" t="n">
         <v>2364150</v>
-      </c>
-      <c r="J59" t="n">
-        <v>128.8</v>
       </c>
       <c r="K59" t="n">
         <v>10.12</v>
       </c>
-      <c r="L59" t="n">
-        <v>0.87</v>
-      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A60" t="n">
+        <v>25700</v>
+      </c>
+      <c r="B60" t="n">
+        <v>116.7</v>
       </c>
       <c r="C60" t="n">
-        <v>25700</v>
+        <v>4574325</v>
       </c>
       <c r="D60" t="n">
-        <v>4574325</v>
+        <v>146667000</v>
       </c>
       <c r="E60" t="n">
         <v>2371425</v>
       </c>
       <c r="F60" t="n">
-        <v>116.7</v>
+        <v>10.42</v>
       </c>
       <c r="G60" t="n">
-        <v>10.42</v>
+        <v>153.15</v>
       </c>
       <c r="H60" t="n">
         <v>2272425</v>
       </c>
       <c r="I60" t="n">
+        <v>50257125</v>
+      </c>
+      <c r="J60" t="n">
         <v>1880700</v>
-      </c>
-      <c r="J60" t="n">
-        <v>153.15</v>
       </c>
       <c r="K60" t="n">
         <v>10.02</v>
       </c>
-      <c r="L60" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A61" t="n">
+        <v>25750</v>
+      </c>
+      <c r="B61" t="n">
+        <v>94.2</v>
       </c>
       <c r="C61" t="n">
-        <v>25750</v>
+        <v>1820625</v>
       </c>
       <c r="D61" t="n">
-        <v>1820625</v>
+        <v>72961875</v>
       </c>
       <c r="E61" t="n">
         <v>1102800</v>
       </c>
       <c r="F61" t="n">
-        <v>94.2</v>
+        <v>10.37</v>
       </c>
       <c r="G61" t="n">
-        <v>10.37</v>
+        <v>182.45</v>
       </c>
       <c r="H61" t="n">
         <v>390375</v>
       </c>
       <c r="I61" t="n">
+        <v>9948675</v>
+      </c>
+      <c r="J61" t="n">
         <v>324000</v>
-      </c>
-      <c r="J61" t="n">
-        <v>182.45</v>
       </c>
       <c r="K61" t="n">
         <v>9.9</v>
       </c>
-      <c r="L61" t="n">
-        <v>0.21</v>
-      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A62" t="n">
+        <v>25800</v>
+      </c>
+      <c r="B62" t="n">
+        <v>75.40000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>25800</v>
+        <v>4343025</v>
       </c>
       <c r="D62" t="n">
-        <v>4343025</v>
+        <v>109681875</v>
       </c>
       <c r="E62" t="n">
         <v>1643625</v>
       </c>
       <c r="F62" t="n">
-        <v>75.40000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="G62" t="n">
-        <v>10.25</v>
+        <v>212.2</v>
       </c>
       <c r="H62" t="n">
         <v>858375</v>
       </c>
       <c r="I62" t="n">
+        <v>13412175</v>
+      </c>
+      <c r="J62" t="n">
         <v>555150</v>
-      </c>
-      <c r="J62" t="n">
-        <v>212.2</v>
       </c>
       <c r="K62" t="n">
         <v>9.81</v>
       </c>
-      <c r="L62" t="n">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A63" t="n">
+        <v>25850</v>
+      </c>
+      <c r="B63" t="n">
+        <v>59.1</v>
       </c>
       <c r="C63" t="n">
-        <v>25850</v>
+        <v>1693500</v>
       </c>
       <c r="D63" t="n">
-        <v>1693500</v>
+        <v>49473825</v>
       </c>
       <c r="E63" t="n">
         <v>1024650</v>
       </c>
       <c r="F63" t="n">
-        <v>59.1</v>
+        <v>10.24</v>
       </c>
       <c r="G63" t="n">
-        <v>10.24</v>
+        <v>245.15</v>
       </c>
       <c r="H63" t="n">
         <v>118650</v>
       </c>
       <c r="I63" t="n">
+        <v>2053350</v>
+      </c>
+      <c r="J63" t="n">
         <v>103500</v>
-      </c>
-      <c r="J63" t="n">
-        <v>245.15</v>
       </c>
       <c r="K63" t="n">
         <v>9.720000000000001</v>
       </c>
-      <c r="L63" t="n">
-        <v>0.07000000000000001</v>
-      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A64" t="n">
+        <v>25900</v>
+      </c>
+      <c r="B64" t="n">
+        <v>46.6</v>
       </c>
       <c r="C64" t="n">
-        <v>25900</v>
+        <v>4893150</v>
       </c>
       <c r="D64" t="n">
-        <v>4893150</v>
+        <v>77197650</v>
       </c>
       <c r="E64" t="n">
         <v>3328875</v>
       </c>
       <c r="F64" t="n">
-        <v>46.6</v>
+        <v>10.22</v>
       </c>
       <c r="G64" t="n">
-        <v>10.22</v>
+        <v>283.7</v>
       </c>
       <c r="H64" t="n">
         <v>268875</v>
       </c>
       <c r="I64" t="n">
+        <v>3150300</v>
+      </c>
+      <c r="J64" t="n">
         <v>222600</v>
-      </c>
-      <c r="J64" t="n">
-        <v>283.7</v>
       </c>
       <c r="K64" t="n">
         <v>9.65</v>
       </c>
-      <c r="L64" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A65" t="n">
+        <v>25950</v>
+      </c>
+      <c r="B65" t="n">
+        <v>36.15</v>
       </c>
       <c r="C65" t="n">
-        <v>25950</v>
+        <v>1383375</v>
       </c>
       <c r="D65" t="n">
-        <v>1383375</v>
+        <v>37511850</v>
       </c>
       <c r="E65" t="n">
         <v>848775</v>
       </c>
       <c r="F65" t="n">
-        <v>36.15</v>
+        <v>10.28</v>
       </c>
       <c r="G65" t="n">
-        <v>10.28</v>
+        <v>327.6</v>
       </c>
       <c r="H65" t="n">
         <v>27225</v>
       </c>
       <c r="I65" t="n">
+        <v>344175</v>
+      </c>
+      <c r="J65" t="n">
         <v>19950</v>
-      </c>
-      <c r="J65" t="n">
-        <v>327.6</v>
       </c>
       <c r="K65" t="n">
         <v>9.779999999999999</v>
       </c>
-      <c r="L65" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A66" t="n">
+        <v>26000</v>
+      </c>
+      <c r="B66" t="n">
+        <v>28.45</v>
       </c>
       <c r="C66" t="n">
-        <v>26000</v>
+        <v>8117625</v>
       </c>
       <c r="D66" t="n">
-        <v>8117625</v>
+        <v>133561200</v>
       </c>
       <c r="E66" t="n">
         <v>3124200</v>
       </c>
       <c r="F66" t="n">
-        <v>28.45</v>
+        <v>10.39</v>
       </c>
       <c r="G66" t="n">
-        <v>10.39</v>
+        <v>368.85</v>
       </c>
       <c r="H66" t="n">
         <v>613650</v>
       </c>
       <c r="I66" t="n">
+        <v>3147825</v>
+      </c>
+      <c r="J66" t="n">
         <v>143175</v>
-      </c>
-      <c r="J66" t="n">
-        <v>368.85</v>
       </c>
       <c r="K66" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="L66" t="n">
-        <v>0.08</v>
-      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A67" t="n">
+        <v>26050</v>
+      </c>
+      <c r="B67" t="n">
+        <v>21.8</v>
       </c>
       <c r="C67" t="n">
-        <v>26050</v>
+        <v>1213650</v>
       </c>
       <c r="D67" t="n">
-        <v>1213650</v>
+        <v>33981975</v>
       </c>
       <c r="E67" t="n">
         <v>456300</v>
       </c>
       <c r="F67" t="n">
-        <v>21.8</v>
+        <v>10.39</v>
       </c>
       <c r="G67" t="n">
-        <v>10.39</v>
+        <v>410.6</v>
       </c>
       <c r="H67" t="n">
         <v>13125</v>
       </c>
       <c r="I67" t="n">
+        <v>111750</v>
+      </c>
+      <c r="J67" t="n">
         <v>11700</v>
-      </c>
-      <c r="J67" t="n">
-        <v>410.6</v>
       </c>
       <c r="K67" t="n">
         <v>9.75</v>
       </c>
-      <c r="L67" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A68" t="n">
+        <v>26100</v>
+      </c>
+      <c r="B68" t="n">
+        <v>16.8</v>
       </c>
       <c r="C68" t="n">
-        <v>26100</v>
+        <v>3135000</v>
       </c>
       <c r="D68" t="n">
-        <v>3135000</v>
+        <v>44366775</v>
       </c>
       <c r="E68" t="n">
         <v>1506750</v>
       </c>
       <c r="F68" t="n">
-        <v>16.8</v>
+        <v>10.51</v>
       </c>
       <c r="G68" t="n">
-        <v>10.51</v>
+        <v>458</v>
       </c>
       <c r="H68" t="n">
         <v>48450</v>
       </c>
       <c r="I68" t="n">
+        <v>247350</v>
+      </c>
+      <c r="J68" t="n">
         <v>25650</v>
-      </c>
-      <c r="J68" t="n">
-        <v>458</v>
       </c>
       <c r="K68" t="n">
         <v>9.609999999999999</v>
       </c>
-      <c r="L68" t="n">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A69" t="n">
+        <v>26150</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12.7</v>
       </c>
       <c r="C69" t="n">
-        <v>26150</v>
+        <v>1218525</v>
       </c>
       <c r="D69" t="n">
-        <v>1218525</v>
+        <v>28772625</v>
       </c>
       <c r="E69" t="n">
         <v>757125</v>
       </c>
       <c r="F69" t="n">
-        <v>12.7</v>
+        <v>10.64</v>
       </c>
       <c r="G69" t="n">
-        <v>10.64</v>
+        <v>497.15</v>
       </c>
       <c r="H69" t="n">
         <v>5175</v>
       </c>
       <c r="I69" t="n">
+        <v>19125</v>
+      </c>
+      <c r="J69" t="n">
         <v>4875</v>
-      </c>
-      <c r="J69" t="n">
-        <v>497.15</v>
       </c>
       <c r="K69" t="n">
         <v>8.33</v>
       </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A70" t="n">
+        <v>26200</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9.85</v>
       </c>
       <c r="C70" t="n">
-        <v>26200</v>
+        <v>4125900</v>
       </c>
       <c r="D70" t="n">
-        <v>4125900</v>
+        <v>54236250</v>
       </c>
       <c r="E70" t="n">
         <v>1183425</v>
       </c>
       <c r="F70" t="n">
-        <v>9.85</v>
+        <v>10.71</v>
       </c>
       <c r="G70" t="n">
-        <v>10.71</v>
+        <v>550.45</v>
       </c>
       <c r="H70" t="n">
         <v>41325</v>
       </c>
       <c r="I70" t="n">
+        <v>123225</v>
+      </c>
+      <c r="J70" t="n">
         <v>19875</v>
-      </c>
-      <c r="J70" t="n">
-        <v>550.45</v>
       </c>
       <c r="K70" t="n">
         <v>9.49</v>
       </c>
-      <c r="L70" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A71" t="n">
+        <v>26250</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7.8</v>
       </c>
       <c r="C71" t="n">
-        <v>26250</v>
+        <v>1890750</v>
       </c>
       <c r="D71" t="n">
-        <v>1890750</v>
+        <v>30126225</v>
       </c>
       <c r="E71" t="n">
         <v>1230900</v>
       </c>
       <c r="F71" t="n">
-        <v>7.8</v>
+        <v>10.86</v>
       </c>
       <c r="G71" t="n">
-        <v>10.86</v>
+        <v>596.7</v>
       </c>
       <c r="H71" t="n">
         <v>2100</v>
       </c>
       <c r="I71" t="n">
+        <v>8325</v>
+      </c>
+      <c r="J71" t="n">
         <v>1725</v>
-      </c>
-      <c r="J71" t="n">
-        <v>596.7</v>
       </c>
       <c r="K71" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A72" t="n">
+        <v>26300</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
       </c>
       <c r="C72" t="n">
-        <v>26300</v>
+        <v>3788700</v>
       </c>
       <c r="D72" t="n">
-        <v>3788700</v>
+        <v>32096550</v>
       </c>
       <c r="E72" t="n">
         <v>1428450</v>
       </c>
       <c r="F72" t="n">
-        <v>6</v>
+        <v>11.05</v>
       </c>
       <c r="G72" t="n">
-        <v>11.05</v>
+        <v>638.9</v>
       </c>
       <c r="H72" t="n">
         <v>23025</v>
       </c>
       <c r="I72" t="n">
+        <v>66600</v>
+      </c>
+      <c r="J72" t="n">
         <v>18525</v>
       </c>
-      <c r="J72" t="n">
-        <v>638.9</v>
-      </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
-      <c r="L72" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A73" t="n">
+        <v>26350</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4.8</v>
       </c>
       <c r="C73" t="n">
-        <v>26350</v>
+        <v>1766400</v>
       </c>
       <c r="D73" t="n">
-        <v>1766400</v>
+        <v>19591575</v>
       </c>
       <c r="E73" t="n">
         <v>923625</v>
       </c>
       <c r="F73" t="n">
-        <v>4.8</v>
+        <v>11.29</v>
       </c>
       <c r="G73" t="n">
-        <v>11.29</v>
+        <v>694.95</v>
       </c>
       <c r="H73" t="n">
         <v>1050</v>
       </c>
       <c r="I73" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J73" t="n">
         <v>225</v>
-      </c>
-      <c r="J73" t="n">
-        <v>694.95</v>
       </c>
       <c r="K73" t="n">
         <v>9.77</v>
       </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A74" t="n">
+        <v>26400</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.75</v>
       </c>
       <c r="C74" t="n">
-        <v>26400</v>
+        <v>2907150</v>
       </c>
       <c r="D74" t="n">
-        <v>2907150</v>
+        <v>31292775</v>
       </c>
       <c r="E74" t="n">
         <v>1391400</v>
       </c>
       <c r="F74" t="n">
-        <v>3.75</v>
+        <v>11.44</v>
       </c>
       <c r="G74" t="n">
-        <v>11.44</v>
+        <v>742.2</v>
       </c>
       <c r="H74" t="n">
         <v>3225</v>
       </c>
       <c r="I74" t="n">
+        <v>9150</v>
+      </c>
+      <c r="J74" t="n">
         <v>1050</v>
       </c>
-      <c r="J74" t="n">
-        <v>742.2</v>
-      </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A75" t="n">
+        <v>26450</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.05</v>
       </c>
       <c r="C75" t="n">
-        <v>26450</v>
+        <v>1317450</v>
       </c>
       <c r="D75" t="n">
-        <v>1317450</v>
+        <v>17405550</v>
       </c>
       <c r="E75" t="n">
         <v>795750</v>
       </c>
       <c r="F75" t="n">
-        <v>3.05</v>
+        <v>11.66</v>
       </c>
       <c r="G75" t="n">
-        <v>11.66</v>
+        <v>799.95</v>
       </c>
       <c r="H75" t="n">
         <v>1275</v>
       </c>
       <c r="I75" t="n">
+        <v>1575</v>
+      </c>
+      <c r="J75" t="n">
         <v>375</v>
-      </c>
-      <c r="J75" t="n">
-        <v>799.95</v>
       </c>
       <c r="K75" t="n">
         <v>13.43</v>
       </c>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A76" t="n">
+        <v>26500</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.7</v>
       </c>
       <c r="C76" t="n">
-        <v>26500</v>
+        <v>7943325</v>
       </c>
       <c r="D76" t="n">
-        <v>7943325</v>
+        <v>53817675</v>
       </c>
       <c r="E76" t="n">
         <v>1870050</v>
       </c>
       <c r="F76" t="n">
-        <v>2.7</v>
+        <v>12.02</v>
       </c>
       <c r="G76" t="n">
-        <v>12.02</v>
+        <v>837.45</v>
       </c>
       <c r="H76" t="n">
         <v>43500</v>
       </c>
       <c r="I76" t="n">
+        <v>102975</v>
+      </c>
+      <c r="J76" t="n">
         <v>4425</v>
       </c>
-      <c r="J76" t="n">
-        <v>837.45</v>
-      </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
-      <c r="L76" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A77" t="n">
+        <v>26550</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.1</v>
       </c>
       <c r="C77" t="n">
-        <v>26550</v>
+        <v>872775</v>
       </c>
       <c r="D77" t="n">
-        <v>872775</v>
+        <v>18087600</v>
       </c>
       <c r="E77" t="n">
         <v>400950</v>
       </c>
       <c r="F77" t="n">
-        <v>2.1</v>
+        <v>12.27</v>
       </c>
       <c r="G77" t="n">
-        <v>12.27</v>
+        <v>890</v>
       </c>
       <c r="H77" t="n">
         <v>975</v>
       </c>
       <c r="I77" t="n">
+        <v>750</v>
+      </c>
+      <c r="J77" t="n">
         <v>150</v>
       </c>
-      <c r="J77" t="n">
-        <v>890</v>
-      </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A78" t="n">
+        <v>26600</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.85</v>
       </c>
       <c r="C78" t="n">
-        <v>26600</v>
+        <v>2522850</v>
       </c>
       <c r="D78" t="n">
-        <v>2522850</v>
+        <v>24794175</v>
       </c>
       <c r="E78" t="n">
         <v>1104900</v>
       </c>
       <c r="F78" t="n">
-        <v>1.85</v>
+        <v>12.45</v>
       </c>
       <c r="G78" t="n">
-        <v>12.45</v>
+        <v>938.75</v>
       </c>
       <c r="H78" t="n">
         <v>3075</v>
       </c>
       <c r="I78" t="n">
+        <v>4950</v>
+      </c>
+      <c r="J78" t="n">
         <v>2175</v>
       </c>
-      <c r="J78" t="n">
-        <v>938.75</v>
-      </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A79" t="n">
+        <v>26650</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.6</v>
       </c>
       <c r="C79" t="n">
-        <v>26650</v>
+        <v>935850</v>
       </c>
       <c r="D79" t="n">
-        <v>935850</v>
+        <v>12877350</v>
       </c>
       <c r="E79" t="n">
         <v>629100</v>
       </c>
       <c r="F79" t="n">
-        <v>1.6</v>
+        <v>12.94</v>
       </c>
       <c r="G79" t="n">
-        <v>12.94</v>
+        <v>1576.6</v>
       </c>
       <c r="H79" t="n">
         <v>600</v>
       </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>-225</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1576.6</v>
       </c>
       <c r="K79" t="n">
         <v>75.06999999999999</v>
       </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A80" t="n">
+        <v>26700</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.45</v>
       </c>
       <c r="C80" t="n">
-        <v>26700</v>
+        <v>1943700</v>
       </c>
       <c r="D80" t="n">
-        <v>1943700</v>
+        <v>18147525</v>
       </c>
       <c r="E80" t="n">
         <v>1031250</v>
       </c>
       <c r="F80" t="n">
-        <v>1.45</v>
+        <v>13.31</v>
       </c>
       <c r="G80" t="n">
-        <v>13.31</v>
+        <v>1595.8</v>
       </c>
       <c r="H80" t="n">
         <v>675</v>
       </c>
       <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
         <v>-75</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1595.8</v>
       </c>
       <c r="K80" t="n">
         <v>73.81</v>
       </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A81" t="n">
+        <v>26750</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.35</v>
       </c>
       <c r="C81" t="n">
-        <v>26750</v>
+        <v>539025</v>
       </c>
       <c r="D81" t="n">
-        <v>539025</v>
+        <v>7308675</v>
       </c>
       <c r="E81" t="n">
         <v>31200</v>
       </c>
       <c r="F81" t="n">
-        <v>1.35</v>
+        <v>13.67</v>
       </c>
       <c r="G81" t="n">
-        <v>13.67</v>
+        <v>1088.55</v>
       </c>
       <c r="H81" t="n">
         <v>750</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J81" t="n">
-        <v>1088.55</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A82" t="n">
+        <v>26800</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.35</v>
       </c>
       <c r="C82" t="n">
-        <v>26800</v>
+        <v>2231775</v>
       </c>
       <c r="D82" t="n">
-        <v>2231775</v>
+        <v>12053475</v>
       </c>
       <c r="E82" t="n">
         <v>1116750</v>
       </c>
       <c r="F82" t="n">
-        <v>1.35</v>
+        <v>14.16</v>
       </c>
       <c r="G82" t="n">
-        <v>14.16</v>
+        <v>1148.35</v>
       </c>
       <c r="H82" t="n">
         <v>825</v>
       </c>
       <c r="I82" t="n">
+        <v>225</v>
+      </c>
+      <c r="J82" t="n">
         <v>75</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1148.35</v>
       </c>
       <c r="K82" t="n">
         <v>17.27</v>
       </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A83" t="n">
+        <v>26850</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.25</v>
       </c>
       <c r="C83" t="n">
-        <v>26850</v>
+        <v>556500</v>
       </c>
       <c r="D83" t="n">
-        <v>556500</v>
+        <v>5983650</v>
       </c>
       <c r="E83" t="n">
         <v>-27225</v>
       </c>
       <c r="F83" t="n">
-        <v>1.25</v>
+        <v>14.65</v>
       </c>
       <c r="G83" t="n">
-        <v>14.65</v>
+        <v>1191.95</v>
       </c>
       <c r="H83" t="n">
         <v>750</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="J83" t="n">
-        <v>1191.95</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A84" t="n">
+        <v>26900</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.2</v>
       </c>
       <c r="C84" t="n">
-        <v>26900</v>
+        <v>3495150</v>
       </c>
       <c r="D84" t="n">
-        <v>3495150</v>
+        <v>14874825</v>
       </c>
       <c r="E84" t="n">
         <v>443625</v>
       </c>
       <c r="F84" t="n">
-        <v>1.2</v>
+        <v>15.01</v>
       </c>
       <c r="G84" t="n">
-        <v>15.01</v>
+        <v>1291.9</v>
       </c>
       <c r="H84" t="n">
         <v>7350</v>
       </c>
       <c r="I84" t="n">
+        <v>1275</v>
+      </c>
+      <c r="J84" t="n">
         <v>75</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1291.9</v>
       </c>
       <c r="K84" t="n">
         <v>29.28</v>
       </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A85" t="n">
+        <v>26950</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.15</v>
       </c>
       <c r="C85" t="n">
-        <v>26950</v>
+        <v>1452750</v>
       </c>
       <c r="D85" t="n">
-        <v>1452750</v>
+        <v>8217150</v>
       </c>
       <c r="E85" t="n">
         <v>-97050</v>
       </c>
       <c r="F85" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>27000</v>
+      </c>
+      <c r="B86" t="n">
         <v>1.15</v>
       </c>
-      <c r="G85" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
-      </c>
       <c r="C86" t="n">
-        <v>27000</v>
+        <v>7009500</v>
       </c>
       <c r="D86" t="n">
-        <v>7009500</v>
+        <v>38806725</v>
       </c>
       <c r="E86" t="n">
         <v>2318400</v>
       </c>
       <c r="F86" t="n">
-        <v>1.15</v>
+        <v>15.99</v>
       </c>
       <c r="G86" t="n">
-        <v>15.99</v>
+        <v>1340.5</v>
       </c>
       <c r="H86" t="n">
         <v>80325</v>
       </c>
       <c r="I86" t="n">
+        <v>15675</v>
+      </c>
+      <c r="J86" t="n">
         <v>-1500</v>
       </c>
-      <c r="J86" t="n">
-        <v>1340.5</v>
-      </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
-      <c r="L86" t="n">
-        <v>0.01</v>
-      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A87" t="n">
+        <v>27050</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.15</v>
       </c>
       <c r="C87" t="n">
-        <v>27050</v>
+        <v>694350</v>
       </c>
       <c r="D87" t="n">
-        <v>694350</v>
+        <v>5162550</v>
       </c>
       <c r="E87" t="n">
         <v>694350</v>
       </c>
       <c r="F87" t="n">
-        <v>1.15</v>
+        <v>16.6</v>
       </c>
       <c r="G87" t="n">
-        <v>16.6</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4103,35 +3499,28 @@
       <c r="K87" t="n">
         <v>0</v>
       </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A88" t="n">
+        <v>27100</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.1</v>
       </c>
       <c r="C88" t="n">
-        <v>27100</v>
+        <v>1003050</v>
       </c>
       <c r="D88" t="n">
-        <v>1003050</v>
+        <v>7745850</v>
       </c>
       <c r="E88" t="n">
         <v>1003050</v>
       </c>
       <c r="F88" t="n">
-        <v>1.1</v>
+        <v>16.97</v>
       </c>
       <c r="G88" t="n">
-        <v>16.97</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4145,35 +3534,28 @@
       <c r="K88" t="n">
         <v>0</v>
       </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A89" t="n">
+        <v>27150</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.15</v>
       </c>
       <c r="C89" t="n">
-        <v>27150</v>
+        <v>585000</v>
       </c>
       <c r="D89" t="n">
-        <v>585000</v>
+        <v>4915425</v>
       </c>
       <c r="E89" t="n">
         <v>585000</v>
       </c>
       <c r="F89" t="n">
-        <v>1.15</v>
+        <v>17.58</v>
       </c>
       <c r="G89" t="n">
-        <v>17.58</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4187,35 +3569,28 @@
       <c r="K89" t="n">
         <v>0</v>
       </c>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A90" t="n">
+        <v>27200</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>27200</v>
+        <v>1123575</v>
       </c>
       <c r="D90" t="n">
-        <v>1123575</v>
+        <v>8999625</v>
       </c>
       <c r="E90" t="n">
         <v>1123575</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>17.82</v>
       </c>
       <c r="G90" t="n">
-        <v>17.82</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4229,35 +3604,28 @@
       <c r="K90" t="n">
         <v>0</v>
       </c>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A91" t="n">
+        <v>27250</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.1</v>
       </c>
       <c r="C91" t="n">
-        <v>27250</v>
+        <v>1138950</v>
       </c>
       <c r="D91" t="n">
-        <v>1138950</v>
+        <v>7598100</v>
       </c>
       <c r="E91" t="n">
         <v>1138950</v>
       </c>
       <c r="F91" t="n">
-        <v>1.1</v>
+        <v>18.55</v>
       </c>
       <c r="G91" t="n">
-        <v>18.55</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4271,35 +3639,28 @@
       <c r="K91" t="n">
         <v>0</v>
       </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A92" t="n">
+        <v>27300</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>27300</v>
+        <v>3786075</v>
       </c>
       <c r="D92" t="n">
-        <v>3786075</v>
+        <v>25983375</v>
       </c>
       <c r="E92" t="n">
         <v>3786075</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>18.8</v>
       </c>
       <c r="G92" t="n">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4313,23 +3674,16 @@
       <c r="K92" t="n">
         <v>0</v>
       </c>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A93" t="n">
+        <v>27350</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>27350</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -4355,21 +3709,16 @@
       <c r="K93" t="n">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
+      <c r="A94" t="n">
+        <v>27400</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>27400</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -4395,7 +3744,6 @@
       <c r="K94" t="n">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
